--- a/Data Binding Christi.xlsx
+++ b/Data Binding Christi.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\HunterCMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4DF399-74A9-425E-AC83-309650BEB97B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04A87A2-A94C-41D9-A4D0-417C97565578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F650361C-5F20-40B9-8782-3E43AA1F215A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F650361C-5F20-40B9-8782-3E43AA1F215A}"/>
   </bookViews>
   <sheets>
     <sheet name="change password" sheetId="1" r:id="rId1"/>
+    <sheet name="tambah reward" sheetId="2" r:id="rId2"/>
+    <sheet name="edit reward" sheetId="3" r:id="rId3"/>
+    <sheet name="delete reward" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
   <si>
     <t>status</t>
   </si>
@@ -93,14 +96,124 @@
   </si>
   <si>
     <t>Password2</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>nama reward</t>
+  </si>
+  <si>
+    <t>img reward</t>
+  </si>
+  <si>
+    <t>decs reward</t>
+  </si>
+  <si>
+    <t>img upload</t>
+  </si>
+  <si>
+    <t>Jam dinding</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\git\HunterCMS\image\jam-dinding-kartun-png-1.png</t>
+  </si>
+  <si>
+    <t>Tumbler</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>600 mL</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\git\HunterCMS\image\127-1277195_bottle-tumbler-png-transparent-png.png</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>nama kosong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deskripsi kosong </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topi </t>
+  </si>
+  <si>
+    <t>file to big</t>
+  </si>
+  <si>
+    <t>wrong file extension</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\git\HunterCMS\image\01. What Business Are we in (1).pdf</t>
+  </si>
+  <si>
+    <t>Liburan Keluaraga</t>
+  </si>
+  <si>
+    <t>Kaos</t>
+  </si>
+  <si>
+    <t>paket liburan ke bali selama 1 minggu (sudah termasuk tiket)</t>
+  </si>
+  <si>
+    <t>S,M,L,XL</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\Documents\SOP-Kerja-Praktik-Prodi-Sistem-Informasi.pdf</t>
+  </si>
+  <si>
+    <t>kcdkfsk</t>
+  </si>
+  <si>
+    <t>nama reward baru</t>
+  </si>
+  <si>
+    <t>tambah img</t>
+  </si>
+  <si>
+    <t>ganti img</t>
+  </si>
+  <si>
+    <t>decs reward baru</t>
+  </si>
+  <si>
+    <t>Hitam,Biru,Merah,Kuning</t>
+  </si>
+  <si>
+    <t>desc reward</t>
+  </si>
+  <si>
+    <t>Liburan Keluarga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -116,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,12 +237,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B950DDD1-E905-4EDB-8889-DE1CEFEB7359}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,4 +773,343 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21AB57E-75C3-4873-B518-A64ED8A9D4B2}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E51D11E-B6EF-4BE8-9205-D8027414F64E}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F97FE57-F0B5-431D-9A4E-8687192A17C9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data Binding Christi.xlsx
+++ b/Data Binding Christi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\HunterCMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04A87A2-A94C-41D9-A4D0-417C97565578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74B7CBC-B026-4DD9-AD24-032CFB4E0BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F650361C-5F20-40B9-8782-3E43AA1F215A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F650361C-5F20-40B9-8782-3E43AA1F215A}"/>
   </bookViews>
   <sheets>
     <sheet name="change password" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
   <si>
     <t>status</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Liburan Keluarga</t>
+  </si>
+  <si>
+    <t>Password2#</t>
   </si>
 </sst>
 </file>
@@ -581,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B950DDD1-E905-4EDB-8889-DE1CEFEB7359}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -660,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -686,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -706,10 +709,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -735,10 +738,10 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
@@ -758,16 +761,39 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E51D11E-B6EF-4BE8-9205-D8027414F64E}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/Data Binding Christi.xlsx
+++ b/Data Binding Christi.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\HunterCMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74B7CBC-B026-4DD9-AD24-032CFB4E0BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9650A7F-8D0A-4D3E-A218-B5345F3BC352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F650361C-5F20-40B9-8782-3E43AA1F215A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F650361C-5F20-40B9-8782-3E43AA1F215A}"/>
   </bookViews>
   <sheets>
     <sheet name="change password" sheetId="1" r:id="rId1"/>
     <sheet name="tambah reward" sheetId="2" r:id="rId2"/>
     <sheet name="edit reward" sheetId="3" r:id="rId3"/>
-    <sheet name="delete reward" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="delete reward" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
   <si>
     <t>status</t>
   </si>
@@ -134,9 +135,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>C:\Users\ASUS\git\HunterCMS\image\127-1277195_bottle-tumbler-png-transparent-png.png</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -173,9 +171,6 @@
     <t>alert</t>
   </si>
   <si>
-    <t>C:\Users\ASUS\Documents\SOP-Kerja-Praktik-Prodi-Sistem-Informasi.pdf</t>
-  </si>
-  <si>
     <t>kcdkfsk</t>
   </si>
   <si>
@@ -197,10 +192,28 @@
     <t>desc reward</t>
   </si>
   <si>
-    <t>Liburan Keluarga</t>
-  </si>
-  <si>
-    <t>Password2#</t>
+    <t>erase</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\git\HunterCMS\image\bn48b9rn47-95-0-1--l.jpg</t>
+  </si>
+  <si>
+    <t>deskripsi kosong</t>
+  </si>
+  <si>
+    <t>‪C:\Users\ASUS\git\HunterCMS\image\PNG_UW Icon .png</t>
+  </si>
+  <si>
+    <t>Kaos Oblong</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\git\HunterCMS\image\Kaos-Polos.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jam </t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\git\HunterCMS\image\Cover Sales Basic Training.png</t>
   </si>
 </sst>
 </file>
@@ -586,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B950DDD1-E905-4EDB-8889-DE1CEFEB7359}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,10 +791,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -805,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21AB57E-75C3-4873-B518-A64ED8A9D4B2}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,12 +848,12 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -874,21 +887,21 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -897,47 +910,47 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -950,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E51D11E-B6EF-4BE8-9205-D8027414F64E}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +972,7 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="5" max="5" width="85.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -972,7 +985,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>24</v>
@@ -981,13 +994,13 @@
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -998,98 +1011,152 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
       </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
       <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
+      <c r="F7" t="s">
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1098,6 +1165,203 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333D7E3C-C0C6-4901-970E-9FE51AA05E18}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F97FE57-F0B5-431D-9A4E-8687192A17C9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1120,7 +1384,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
